--- a/Benchmark_Per_Alat_Berat_Data_Baru2.xlsx
+++ b/Benchmark_Per_Alat_Berat_Data_Baru2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Downloads\SPIL\bbm\Analisa BBM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B65D4C-1D56-4713-B138-3F4EEE5B5CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B139274B-03E6-44C2-AEA1-CF5D8F55EF09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7768,7 +7768,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8009,11 +8009,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8042,7 +8043,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>164</v>
       </c>
@@ -8059,7 +8060,7 @@
         <v>4507</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>164</v>
       </c>
@@ -8076,7 +8077,7 @@
         <v>4248</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>164</v>
       </c>
@@ -8093,7 +8094,7 @@
         <v>3908</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>164</v>
       </c>
@@ -8110,7 +8111,7 @@
         <v>4463</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>164</v>
       </c>
@@ -8127,7 +8128,7 @@
         <v>4727</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>164</v>
       </c>
@@ -8144,7 +8145,7 @@
         <v>4489</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>164</v>
       </c>
@@ -8161,7 +8162,7 @@
         <v>4948</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>164</v>
       </c>
@@ -8178,7 +8179,7 @@
         <v>4420</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>164</v>
       </c>
@@ -8195,7 +8196,7 @@
         <v>4792</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>257</v>
       </c>
@@ -8212,7 +8213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -8229,7 +8230,7 @@
         <v>1072.3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>164</v>
       </c>
@@ -8246,7 +8247,7 @@
         <v>3665</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>164</v>
       </c>
@@ -8263,7 +8264,7 @@
         <v>2613</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>164</v>
       </c>
@@ -8280,7 +8281,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>164</v>
       </c>
@@ -8297,7 +8298,7 @@
         <v>3923</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>164</v>
       </c>
@@ -8331,7 +8332,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>164</v>
       </c>
@@ -8348,7 +8349,7 @@
         <v>3227</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>164</v>
       </c>
@@ -8365,7 +8366,7 @@
         <v>3901</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>164</v>
       </c>
@@ -8382,7 +8383,7 @@
         <v>2835</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>164</v>
       </c>
@@ -8399,7 +8400,7 @@
         <v>3565</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>164</v>
       </c>
@@ -8416,7 +8417,7 @@
         <v>2643</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>164</v>
       </c>
@@ -8433,7 +8434,7 @@
         <v>3387</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>164</v>
       </c>
@@ -8450,7 +8451,7 @@
         <v>4344</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>164</v>
       </c>
@@ -8484,7 +8485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>164</v>
       </c>
@@ -8501,7 +8502,7 @@
         <v>2858</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>164</v>
       </c>
@@ -8518,7 +8519,7 @@
         <v>3485</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>164</v>
       </c>
@@ -8535,7 +8536,7 @@
         <v>4822</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>164</v>
       </c>
@@ -8552,7 +8553,7 @@
         <v>4364</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>164</v>
       </c>
@@ -8569,7 +8570,7 @@
         <v>5549</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>164</v>
       </c>
@@ -8586,7 +8587,7 @@
         <v>4840</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>164</v>
       </c>
@@ -8603,7 +8604,7 @@
         <v>3383</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>164</v>
       </c>
@@ -8620,7 +8621,7 @@
         <v>5566</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>164</v>
       </c>
@@ -8637,7 +8638,7 @@
         <v>4536</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>164</v>
       </c>
@@ -8654,7 +8655,7 @@
         <v>4154</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>164</v>
       </c>
@@ -8671,7 +8672,7 @@
         <v>2574</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>164</v>
       </c>
@@ -8688,7 +8689,7 @@
         <v>2683</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>164</v>
       </c>
@@ -8705,7 +8706,7 @@
         <v>4949</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>164</v>
       </c>
@@ -8722,7 +8723,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>164</v>
       </c>
@@ -8773,7 +8774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>164</v>
       </c>
@@ -8790,7 +8791,7 @@
         <v>2964</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>164</v>
       </c>
@@ -8807,7 +8808,7 @@
         <v>3995</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>164</v>
       </c>
@@ -8824,7 +8825,7 @@
         <v>2690</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>71</v>
       </c>
@@ -8841,7 +8842,7 @@
         <v>545.1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>23</v>
       </c>
@@ -8858,7 +8859,7 @@
         <v>135.1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>71</v>
       </c>
@@ -8875,7 +8876,7 @@
         <v>848.29999999999973</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>115</v>
       </c>
@@ -8892,7 +8893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>151</v>
       </c>
@@ -8909,7 +8910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>71</v>
       </c>
@@ -8926,7 +8927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>103</v>
       </c>
@@ -8944,7 +8945,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E54" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <autoFilter ref="A1:E54" xr:uid="{00000000-0001-0000-0200-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="TRONTON"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>